--- a/Post_test_by_question.xlsx
+++ b/Post_test_by_question.xlsx
@@ -603,7 +603,7 @@
         <v>0.2980392156862745</v>
       </c>
       <c r="D2">
-        <v>0.4117647058823529</v>
+        <v>0.3647058823529412</v>
       </c>
       <c r="E2">
         <v>0.4196078431372549</v>
@@ -698,7 +698,7 @@
         <v>0.2440944881889764</v>
       </c>
       <c r="D3">
-        <v>0.3818897637795275</v>
+        <v>0.3425196850393701</v>
       </c>
       <c r="E3">
         <v>0.3070866141732284</v>
@@ -793,7 +793,7 @@
         <v>0.4372093023255814</v>
       </c>
       <c r="D4">
-        <v>0.6744186046511628</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="E4">
         <v>0.4883720930232558</v>
@@ -888,7 +888,7 @@
         <v>0.3369175627240144</v>
       </c>
       <c r="D5">
-        <v>0.4408602150537634</v>
+        <v>0.4157706093189964</v>
       </c>
       <c r="E5">
         <v>0.4551971326164875</v>
@@ -983,7 +983,7 @@
         <v>0.4472727272727273</v>
       </c>
       <c r="D6">
-        <v>0.6690909090909091</v>
+        <v>0.5527272727272727</v>
       </c>
       <c r="E6">
         <v>0.5490909090909091</v>
@@ -1173,7 +1173,7 @@
         <v>0.2913907284768212</v>
       </c>
       <c r="D8">
-        <v>0.4139072847682119</v>
+        <v>0.3940397350993378</v>
       </c>
       <c r="E8">
         <v>0.4139072847682119</v>
@@ -1268,7 +1268,7 @@
         <v>0.2107969151670951</v>
       </c>
       <c r="D9">
-        <v>0.3084832904884319</v>
+        <v>0.2236503856041131</v>
       </c>
       <c r="E9">
         <v>0.5578406169665809</v>
@@ -1363,7 +1363,7 @@
         <v>0.3385416666666667</v>
       </c>
       <c r="D10">
-        <v>0.5677083333333334</v>
+        <v>0.421875</v>
       </c>
       <c r="E10">
         <v>0.3854166666666667</v>
@@ -1458,7 +1458,7 @@
         <v>0.3115264797507788</v>
       </c>
       <c r="D11">
-        <v>0.4392523364485981</v>
+        <v>0.2336448598130841</v>
       </c>
       <c r="E11">
         <v>0.719626168224299</v>
@@ -1553,7 +1553,7 @@
         <v>0.3352215203097424</v>
       </c>
       <c r="D12">
-        <v>0.4791911525970519</v>
+        <v>0.3945097419406086</v>
       </c>
       <c r="E12">
         <v>0.4863155637945244</v>

--- a/Post_test_by_question.xlsx
+++ b/Post_test_by_question.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>POST Q1</t>
   </si>
@@ -109,31 +109,25 @@
     <t>2014 111</t>
   </si>
   <si>
-    <t>2014 112</t>
-  </si>
-  <si>
     <t>2015 111</t>
   </si>
   <si>
-    <t>2015 112</t>
-  </si>
-  <si>
     <t>2016 111</t>
   </si>
   <si>
-    <t>2016 112</t>
-  </si>
-  <si>
     <t>2017 111</t>
   </si>
   <si>
-    <t>2017 112</t>
-  </si>
-  <si>
     <t>2018 111</t>
   </si>
   <si>
-    <t>2018 112</t>
+    <t>2019 111</t>
+  </si>
+  <si>
+    <t>2020 111</t>
+  </si>
+  <si>
+    <t>2021 111</t>
   </si>
   <si>
     <t>mean</t>
@@ -494,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,94 +591,94 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>0.4392156862745098</v>
+        <v>0.7417218543046358</v>
       </c>
       <c r="C2">
-        <v>0.2980392156862745</v>
+        <v>0.5033112582781457</v>
       </c>
       <c r="D2">
-        <v>0.3647058823529412</v>
+        <v>0.6158940397350994</v>
       </c>
       <c r="E2">
-        <v>0.4196078431372549</v>
+        <v>0.7086092715231788</v>
       </c>
       <c r="F2">
-        <v>0.2823529411764706</v>
+        <v>0.4768211920529801</v>
       </c>
       <c r="G2">
-        <v>0.5137254901960784</v>
+        <v>0.8675496688741722</v>
       </c>
       <c r="H2">
-        <v>0.4823529411764706</v>
+        <v>0.8145695364238411</v>
       </c>
       <c r="I2">
-        <v>0.4705882352941176</v>
+        <v>0.7947019867549668</v>
       </c>
       <c r="J2">
-        <v>0.3137254901960784</v>
+        <v>0.5298013245033113</v>
       </c>
       <c r="K2">
-        <v>0.4431372549019608</v>
+        <v>0.7483443708609272</v>
       </c>
       <c r="L2">
-        <v>0.3686274509803922</v>
+        <v>0.6225165562913907</v>
       </c>
       <c r="M2">
-        <v>0.5176470588235295</v>
+        <v>0.8741721854304636</v>
       </c>
       <c r="N2">
-        <v>0.2980392156862745</v>
+        <v>0.5033112582781457</v>
       </c>
       <c r="O2">
-        <v>0.2862745098039216</v>
+        <v>0.4834437086092715</v>
       </c>
       <c r="P2">
-        <v>0.2666666666666667</v>
+        <v>0.4503311258278146</v>
       </c>
       <c r="Q2">
-        <v>0.4627450980392157</v>
+        <v>0.7814569536423841</v>
       </c>
       <c r="R2">
-        <v>0.2431372549019608</v>
+        <v>0.4105960264900662</v>
       </c>
       <c r="S2">
-        <v>0.3333333333333333</v>
+        <v>0.5629139072847682</v>
       </c>
       <c r="T2">
-        <v>0.4</v>
+        <v>0.6754966887417219</v>
       </c>
       <c r="U2">
-        <v>0.3803921568627451</v>
+        <v>0.6423841059602649</v>
       </c>
       <c r="V2">
-        <v>0.2980392156862745</v>
+        <v>0.5033112582781457</v>
       </c>
       <c r="W2">
-        <v>0.3333333333333333</v>
+        <v>0.5629139072847682</v>
       </c>
       <c r="X2">
-        <v>0.3215686274509804</v>
+        <v>0.543046357615894</v>
       </c>
       <c r="Y2">
-        <v>0.4549019607843137</v>
+        <v>0.7682119205298014</v>
       </c>
       <c r="Z2">
-        <v>0.2745098039215687</v>
+        <v>0.4635761589403973</v>
       </c>
       <c r="AA2">
-        <v>0.2117647058823529</v>
+        <v>0.3576158940397351</v>
       </c>
       <c r="AB2">
-        <v>0.3843137254901961</v>
+        <v>0.6490066225165563</v>
       </c>
       <c r="AC2">
-        <v>0.4</v>
+        <v>0.6754966887417219</v>
       </c>
       <c r="AD2">
-        <v>0.4745098039215686</v>
+        <v>0.8013245033112583</v>
       </c>
       <c r="AE2">
-        <v>0.2784313725490196</v>
+        <v>0.4701986754966888</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -692,94 +686,94 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.3149606299212598</v>
+        <v>0.7354497354497355</v>
       </c>
       <c r="C3">
-        <v>0.2440944881889764</v>
+        <v>0.4973544973544973</v>
       </c>
       <c r="D3">
-        <v>0.3425196850393701</v>
+        <v>0.582010582010582</v>
       </c>
       <c r="E3">
-        <v>0.3070866141732284</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="F3">
-        <v>0.1377952755905512</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="G3">
-        <v>0.6496062992125984</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="H3">
-        <v>0.5590551181102362</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="I3">
-        <v>0.4173228346456693</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="J3">
-        <v>0.3149606299212598</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="K3">
-        <v>0.4409448818897638</v>
+        <v>0.7195767195767195</v>
       </c>
       <c r="L3">
-        <v>0.2086614173228346</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="M3">
-        <v>0.5236220472440944</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="N3">
-        <v>0.1850393700787402</v>
+        <v>0.4973544973544973</v>
       </c>
       <c r="O3">
-        <v>0.2401574803149606</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="P3">
-        <v>0.2637795275590551</v>
+        <v>0.3915343915343915</v>
       </c>
       <c r="Q3">
-        <v>0.5590551181102362</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="R3">
-        <v>0.1299212598425197</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="S3">
-        <v>0.1850393700787402</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="T3">
-        <v>0.3779527559055118</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="U3">
-        <v>0.3228346456692913</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="V3">
-        <v>0.2480314960629921</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="W3">
-        <v>0.2716535433070866</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="X3">
-        <v>0.2992125984251969</v>
+        <v>0.5343915343915344</v>
       </c>
       <c r="Y3">
-        <v>0.4960629921259843</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="Z3">
-        <v>0.1771653543307087</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="AA3">
-        <v>0.08661417322834646</v>
+        <v>0.2804232804232804</v>
       </c>
       <c r="AB3">
-        <v>0.3543307086614173</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="AC3">
-        <v>0.3425196850393701</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AD3">
-        <v>0.5590551181102362</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="AE3">
-        <v>0.1732283464566929</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -787,94 +781,94 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>0.6465116279069767</v>
+        <v>0.7019607843137254</v>
       </c>
       <c r="C4">
-        <v>0.4372093023255814</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="D4">
-        <v>0.5116279069767442</v>
+        <v>0.596078431372549</v>
       </c>
       <c r="E4">
-        <v>0.4883720930232558</v>
+        <v>0.592156862745098</v>
       </c>
       <c r="F4">
-        <v>0.3813953488372093</v>
+        <v>0.3843137254901961</v>
       </c>
       <c r="G4">
-        <v>0.6697674418604651</v>
+        <v>0.796078431372549</v>
       </c>
       <c r="H4">
-        <v>0.6511627906976745</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="I4">
-        <v>0.5209302325581395</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="J4">
-        <v>0.3813953488372093</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="K4">
-        <v>0.6325581395348837</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L4">
-        <v>0.4465116279069767</v>
+        <v>0.4980392156862745</v>
       </c>
       <c r="M4">
-        <v>0.6976744186046512</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="N4">
-        <v>0.4372093023255814</v>
+        <v>0.5137254901960784</v>
       </c>
       <c r="O4">
-        <v>0.4744186046511628</v>
+        <v>0.4784313725490196</v>
       </c>
       <c r="P4">
-        <v>0.3441860465116279</v>
+        <v>0.3803921568627451</v>
       </c>
       <c r="Q4">
-        <v>0.6511627906976745</v>
+        <v>0.7490196078431373</v>
       </c>
       <c r="R4">
-        <v>0.4232558139534884</v>
+        <v>0.4156862745098039</v>
       </c>
       <c r="S4">
-        <v>0.4883720930232558</v>
+        <v>0.4862745098039216</v>
       </c>
       <c r="T4">
-        <v>0.5162790697674419</v>
+        <v>0.6392156862745098</v>
       </c>
       <c r="U4">
-        <v>0.5581395348837209</v>
+        <v>0.6</v>
       </c>
       <c r="V4">
-        <v>0.3581395348837209</v>
+        <v>0.4274509803921568</v>
       </c>
       <c r="W4">
-        <v>0.4465116279069767</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="X4">
-        <v>0.4697674418604651</v>
+        <v>0.5254901960784314</v>
       </c>
       <c r="Y4">
-        <v>0.6186046511627907</v>
+        <v>0.6823529411764706</v>
       </c>
       <c r="Z4">
-        <v>0.3627906976744186</v>
+        <v>0.3843137254901961</v>
       </c>
       <c r="AA4">
-        <v>0.2465116279069768</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="AB4">
-        <v>0.5581395348837209</v>
+        <v>0.6431372549019608</v>
       </c>
       <c r="AC4">
-        <v>0.4883720930232558</v>
+        <v>0.5607843137254902</v>
       </c>
       <c r="AD4">
-        <v>0.6837209302325581</v>
+        <v>0.7294117647058823</v>
       </c>
       <c r="AE4">
-        <v>0.3906976744186046</v>
+        <v>0.407843137254902</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -882,94 +876,94 @@
         <v>33</v>
       </c>
       <c r="B5">
-        <v>0.6451612903225806</v>
+        <v>0.6455026455026455</v>
       </c>
       <c r="C5">
-        <v>0.3369175627240144</v>
+        <v>0.4656084656084656</v>
       </c>
       <c r="D5">
-        <v>0.4157706093189964</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="E5">
-        <v>0.4551971326164875</v>
+        <v>0.6613756613756614</v>
       </c>
       <c r="F5">
-        <v>0.3512544802867383</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="G5">
-        <v>0.7096774193548387</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="H5">
-        <v>0.6129032258064516</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="I5">
-        <v>0.4301075268817204</v>
+        <v>0.6243386243386243</v>
       </c>
       <c r="J5">
-        <v>0.2688172043010753</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="K5">
-        <v>0.4910394265232975</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L5">
-        <v>0.4014336917562724</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="M5">
-        <v>0.5698924731182796</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="N5">
-        <v>0.2437275985663082</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="O5">
-        <v>0.2437275985663082</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="P5">
-        <v>0.3512544802867383</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="Q5">
-        <v>0.5985663082437276</v>
+        <v>0.7671957671957672</v>
       </c>
       <c r="R5">
-        <v>0.1935483870967742</v>
+        <v>0.4656084656084656</v>
       </c>
       <c r="S5">
-        <v>0.4086021505376344</v>
+        <v>0.4973544973544973</v>
       </c>
       <c r="T5">
-        <v>0.4587813620071685</v>
+        <v>0.708994708994709</v>
       </c>
       <c r="U5">
-        <v>0.4767025089605735</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V5">
-        <v>0.3189964157706093</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="W5">
-        <v>0.3548387096774194</v>
+        <v>0.6084656084656085</v>
       </c>
       <c r="X5">
-        <v>0.3369175627240144</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Y5">
-        <v>0.5232974910394266</v>
+        <v>0.708994708994709</v>
       </c>
       <c r="Z5">
-        <v>0.2150537634408602</v>
+        <v>0.4708994708994709</v>
       </c>
       <c r="AA5">
-        <v>0.1111111111111111</v>
+        <v>0.3544973544973545</v>
       </c>
       <c r="AB5">
-        <v>0.4336917562724014</v>
+        <v>0.656084656084656</v>
       </c>
       <c r="AC5">
-        <v>0.4086021505376344</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="AD5">
-        <v>0.6021505376344086</v>
+        <v>0.8306878306878307</v>
       </c>
       <c r="AE5">
-        <v>0.1971326164874552</v>
+        <v>0.4761904761904762</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -977,94 +971,94 @@
         <v>34</v>
       </c>
       <c r="B6">
-        <v>0.6509090909090909</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="C6">
-        <v>0.4472727272727273</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="D6">
-        <v>0.5527272727272727</v>
+        <v>0.4764705882352941</v>
       </c>
       <c r="E6">
-        <v>0.5490909090909091</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="F6">
-        <v>0.3563636363636364</v>
+        <v>0.3411764705882353</v>
       </c>
       <c r="G6">
-        <v>0.7381818181818182</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="H6">
-        <v>0.6909090909090909</v>
+        <v>0.7235294117647059</v>
       </c>
       <c r="I6">
-        <v>0.5890909090909091</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="J6">
-        <v>0.4945454545454546</v>
+        <v>0.488235294117647</v>
       </c>
       <c r="K6">
-        <v>0.6363636363636364</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L6">
-        <v>0.4618181818181818</v>
+        <v>0.3176470588235294</v>
       </c>
       <c r="M6">
-        <v>0.7818181818181819</v>
+        <v>0.8117647058823529</v>
       </c>
       <c r="N6">
-        <v>0.4763636363636364</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="O6">
-        <v>0.4436363636363637</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="P6">
-        <v>0.3527272727272727</v>
+        <v>0.3294117647058823</v>
       </c>
       <c r="Q6">
-        <v>0.6945454545454546</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="R6">
-        <v>0.3854545454545454</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="S6">
-        <v>0.4509090909090909</v>
+        <v>0.4235294117647059</v>
       </c>
       <c r="T6">
-        <v>0.5927272727272728</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="U6">
-        <v>0.5563636363636364</v>
+        <v>0.5941176470588235</v>
       </c>
       <c r="V6">
-        <v>0.3963636363636364</v>
+        <v>0.4529411764705882</v>
       </c>
       <c r="W6">
-        <v>0.4145454545454546</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="X6">
-        <v>0.4872727272727272</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="Y6">
-        <v>0.6327272727272727</v>
+        <v>0.711764705882353</v>
       </c>
       <c r="Z6">
-        <v>0.3563636363636364</v>
+        <v>0.3588235294117647</v>
       </c>
       <c r="AA6">
-        <v>0.2072727272727273</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="AB6">
-        <v>0.5963636363636363</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="AC6">
-        <v>0.52</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="AD6">
-        <v>0.6763636363636364</v>
+        <v>0.6882352941176471</v>
       </c>
       <c r="AE6">
-        <v>0.3781818181818182</v>
+        <v>0.3294117647058823</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1072,94 +1066,94 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>0.5326460481099656</v>
+        <v>0.7523809523809524</v>
       </c>
       <c r="C7">
-        <v>0.436426116838488</v>
+        <v>0.5380952380952381</v>
       </c>
       <c r="D7">
-        <v>0.4845360824742268</v>
+        <v>0.4380952380952381</v>
       </c>
       <c r="E7">
-        <v>0.5670103092783505</v>
+        <v>0.7571428571428571</v>
       </c>
       <c r="F7">
-        <v>0.4158075601374571</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="G7">
-        <v>0.7594501718213058</v>
+        <v>0.9095238095238095</v>
       </c>
       <c r="H7">
-        <v>0.6013745704467354</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="I7">
-        <v>0.4673539518900344</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="J7">
-        <v>0.3264604810996564</v>
+        <v>0.5190476190476191</v>
       </c>
       <c r="K7">
-        <v>0.4432989690721649</v>
+        <v>0.719047619047619</v>
       </c>
       <c r="L7">
-        <v>0.3676975945017182</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="M7">
-        <v>0.6391752577319587</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="N7">
-        <v>0.3539518900343643</v>
+        <v>0.5190476190476191</v>
       </c>
       <c r="O7">
-        <v>0.2680412371134021</v>
+        <v>0.5523809523809524</v>
       </c>
       <c r="P7">
-        <v>0.4329896907216495</v>
+        <v>0.5761904761904761</v>
       </c>
       <c r="Q7">
-        <v>0.6804123711340206</v>
+        <v>0.7904761904761904</v>
       </c>
       <c r="R7">
-        <v>0.2611683848797251</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="S7">
-        <v>0.4707903780068728</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="T7">
-        <v>0.4501718213058419</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="U7">
-        <v>0.5292096219931272</v>
+        <v>0.7095238095238096</v>
       </c>
       <c r="V7">
-        <v>0.3436426116838488</v>
+        <v>0.4952380952380953</v>
       </c>
       <c r="W7">
-        <v>0.3573883161512028</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="X7">
-        <v>0.3436426116838488</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Y7">
-        <v>0.5154639175257731</v>
+        <v>0.7523809523809524</v>
       </c>
       <c r="Z7">
-        <v>0.2749140893470791</v>
+        <v>0.5</v>
       </c>
       <c r="AA7">
-        <v>0.1065292096219931</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="AB7">
-        <v>0.4845360824742268</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="AC7">
-        <v>0.5498281786941581</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="AD7">
-        <v>0.7319587628865979</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="AE7">
-        <v>0.281786941580756</v>
+        <v>0.4619047619047619</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1167,94 +1161,94 @@
         <v>36</v>
       </c>
       <c r="B8">
-        <v>0.4039735099337748</v>
+        <v>0.7351351351351352</v>
       </c>
       <c r="C8">
-        <v>0.2913907284768212</v>
+        <v>0.5513513513513514</v>
       </c>
       <c r="D8">
-        <v>0.3940397350993378</v>
+        <v>0.4432432432432433</v>
       </c>
       <c r="E8">
-        <v>0.4139072847682119</v>
+        <v>0.6594594594594595</v>
       </c>
       <c r="F8">
-        <v>0.2615894039735099</v>
+        <v>0.5081081081081081</v>
       </c>
       <c r="G8">
-        <v>0.4966887417218543</v>
+        <v>0.8</v>
       </c>
       <c r="H8">
-        <v>0.4635761589403973</v>
+        <v>0.745945945945946</v>
       </c>
       <c r="I8">
-        <v>0.3907284768211921</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="J8">
-        <v>0.2980132450331126</v>
+        <v>0.7135135135135136</v>
       </c>
       <c r="K8">
-        <v>0.4370860927152318</v>
+        <v>0.6432432432432432</v>
       </c>
       <c r="L8">
-        <v>0.3178807947019868</v>
+        <v>0.572972972972973</v>
       </c>
       <c r="M8">
-        <v>0.5264900662251656</v>
+        <v>0.5189189189189189</v>
       </c>
       <c r="N8">
-        <v>0.3708609271523179</v>
+        <v>0.4108108108108108</v>
       </c>
       <c r="O8">
-        <v>0.3377483443708609</v>
+        <v>0.5459459459459459</v>
       </c>
       <c r="P8">
-        <v>0.2682119205298013</v>
+        <v>0.4918918918918919</v>
       </c>
       <c r="Q8">
-        <v>0.4801324503311258</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="R8">
-        <v>0.2913907284768212</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="S8">
-        <v>0.3112582781456953</v>
+        <v>0.4432432432432433</v>
       </c>
       <c r="T8">
-        <v>0.4437086092715232</v>
+        <v>0.3675675675675676</v>
       </c>
       <c r="U8">
-        <v>0.4172185430463576</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="V8">
-        <v>0.3443708609271523</v>
+        <v>0.3837837837837838</v>
       </c>
       <c r="W8">
-        <v>0.380794701986755</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="X8">
-        <v>0.347682119205298</v>
+        <v>0.4972972972972973</v>
       </c>
       <c r="Y8">
-        <v>0.4437086092715232</v>
+        <v>0.3189189189189189</v>
       </c>
       <c r="Z8">
-        <v>0.2947019867549669</v>
+        <v>0.5621621621621622</v>
       </c>
       <c r="AA8">
-        <v>0.2218543046357616</v>
+        <v>0.4162162162162162</v>
       </c>
       <c r="AB8">
-        <v>0.4105960264900662</v>
+        <v>0.5351351351351351</v>
       </c>
       <c r="AC8">
-        <v>0.4370860927152318</v>
+        <v>0.7135135135135136</v>
       </c>
       <c r="AD8">
-        <v>0.5198675496688742</v>
+        <v>0.7243243243243244</v>
       </c>
       <c r="AE8">
-        <v>0.2980132450331126</v>
+        <v>0.6594594594594595</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1262,94 +1256,94 @@
         <v>37</v>
       </c>
       <c r="B9">
-        <v>0.3856041131105398</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="C9">
-        <v>0.2107969151670951</v>
+        <v>0.1294117647058824</v>
       </c>
       <c r="D9">
-        <v>0.2236503856041131</v>
+        <v>0.06274509803921569</v>
       </c>
       <c r="E9">
-        <v>0.5578406169665809</v>
+        <v>0.04313725490196078</v>
       </c>
       <c r="F9">
-        <v>0.3213367609254499</v>
+        <v>0.1098039215686274</v>
       </c>
       <c r="G9">
-        <v>0.583547557840617</v>
+        <v>0.09019607843137255</v>
       </c>
       <c r="H9">
-        <v>0.5089974293059126</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="I9">
-        <v>0.3804627249357326</v>
+        <v>0.1137254901960784</v>
       </c>
       <c r="J9">
-        <v>0.2776349614395887</v>
+        <v>0.02745098039215686</v>
       </c>
       <c r="K9">
-        <v>0.4241645244215938</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="L9">
-        <v>0.3650385604113111</v>
+        <v>0.08627450980392157</v>
       </c>
       <c r="M9">
-        <v>0.5629820051413882</v>
+        <v>0.2627450980392157</v>
       </c>
       <c r="N9">
-        <v>0.3136246786632391</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="O9">
-        <v>0.2287917737789203</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="P9">
-        <v>0.3933161953727506</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="Q9">
-        <v>0.5912596401028277</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="R9">
-        <v>0.2544987146529563</v>
+        <v>0.4627450980392157</v>
       </c>
       <c r="S9">
-        <v>0.390745501285347</v>
+        <v>0.4627450980392157</v>
       </c>
       <c r="T9">
-        <v>0.4652956298200514</v>
+        <v>0.08627450980392157</v>
       </c>
       <c r="U9">
-        <v>0.5115681233933161</v>
+        <v>0.02745098039215686</v>
       </c>
       <c r="V9">
-        <v>0.2493573264781491</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="W9">
-        <v>0.3341902313624679</v>
+        <v>0.05098039215686274</v>
       </c>
       <c r="X9">
-        <v>0.3213367609254499</v>
+        <v>0.4627450980392157</v>
       </c>
       <c r="Y9">
-        <v>0.506426735218509</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="Z9">
-        <v>0.2724935732647815</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="AA9">
-        <v>0.2159383033419023</v>
+        <v>0.00392156862745098</v>
       </c>
       <c r="AB9">
-        <v>0.3933161953727506</v>
+        <v>0.05098039215686274</v>
       </c>
       <c r="AC9">
-        <v>0.5218508997429306</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="AD9">
-        <v>0.609254498714653</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="AE9">
-        <v>0.2596401028277635</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1357,284 +1351,94 @@
         <v>38</v>
       </c>
       <c r="B10">
-        <v>0.5416666666666666</v>
+        <v>0.6713718295623243</v>
       </c>
       <c r="C10">
-        <v>0.3385416666666667</v>
+        <v>0.4437298072183152</v>
       </c>
       <c r="D10">
-        <v>0.421875</v>
+        <v>0.4805208562951064</v>
       </c>
       <c r="E10">
-        <v>0.3854166666666667</v>
+        <v>0.5515913800438538</v>
       </c>
       <c r="F10">
-        <v>0.3020833333333333</v>
+        <v>0.3982951229932142</v>
       </c>
       <c r="G10">
-        <v>0.7291666666666666</v>
+        <v>0.7303041194402705</v>
       </c>
       <c r="H10">
-        <v>0.640625</v>
+        <v>0.6685899566158624</v>
       </c>
       <c r="I10">
-        <v>0.5833333333333334</v>
+        <v>0.5411893688724619</v>
       </c>
       <c r="J10">
-        <v>0.4322916666666667</v>
+        <v>0.4651793718700614</v>
       </c>
       <c r="K10">
-        <v>0.5416666666666666</v>
+        <v>0.6077447480593176</v>
       </c>
       <c r="L10">
-        <v>0.28125</v>
+        <v>0.4623797018956738</v>
       </c>
       <c r="M10">
-        <v>0.71875</v>
+        <v>0.7217787783331219</v>
       </c>
       <c r="N10">
-        <v>0.3125</v>
+        <v>0.4408797933388895</v>
       </c>
       <c r="O10">
-        <v>0.4375</v>
+        <v>0.4566615686307934</v>
       </c>
       <c r="P10">
-        <v>0.2916666666666667</v>
+        <v>0.3957462868010199</v>
       </c>
       <c r="Q10">
-        <v>0.5989583333333334</v>
+        <v>0.6433236641115488</v>
       </c>
       <c r="R10">
-        <v>0.2708333333333333</v>
+        <v>0.4507937204275342</v>
       </c>
       <c r="S10">
-        <v>0.375</v>
+        <v>0.5063329802616908</v>
       </c>
       <c r="T10">
-        <v>0.5572916666666666</v>
+        <v>0.553449480840404</v>
       </c>
       <c r="U10">
-        <v>0.5260416666666666</v>
+        <v>0.5350586562409703</v>
       </c>
       <c r="V10">
-        <v>0.4010416666666667</v>
+        <v>0.4069614211852233</v>
       </c>
       <c r="W10">
-        <v>0.4583333333333333</v>
+        <v>0.4927633181626169</v>
       </c>
       <c r="X10">
-        <v>0.546875</v>
+        <v>0.5384502086537537</v>
       </c>
       <c r="Y10">
-        <v>0.6302083333333334</v>
+        <v>0.5856929422326773</v>
       </c>
       <c r="Z10">
-        <v>0.3177083333333333</v>
+        <v>0.3984709471561828</v>
       </c>
       <c r="AA10">
-        <v>0.1979166666666667</v>
+        <v>0.2842523564523954</v>
       </c>
       <c r="AB10">
-        <v>0.5520833333333334</v>
+        <v>0.5526706920064925</v>
       </c>
       <c r="AC10">
-        <v>0.4739583333333333</v>
+        <v>0.5611146039467036</v>
       </c>
       <c r="AD10">
-        <v>0.609375</v>
+        <v>0.7044743885462622</v>
       </c>
       <c r="AE10">
-        <v>0.2916666666666667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11">
-        <v>0.5077881619937694</v>
-      </c>
-      <c r="C11">
-        <v>0.3115264797507788</v>
-      </c>
-      <c r="D11">
-        <v>0.2336448598130841</v>
-      </c>
-      <c r="E11">
-        <v>0.719626168224299</v>
-      </c>
-      <c r="F11">
-        <v>0.264797507788162</v>
-      </c>
-      <c r="G11">
-        <v>0.778816199376947</v>
-      </c>
-      <c r="H11">
-        <v>0.6542056074766355</v>
-      </c>
-      <c r="I11">
-        <v>0.4330218068535825</v>
-      </c>
-      <c r="J11">
-        <v>0.3146417445482866</v>
-      </c>
-      <c r="K11">
-        <v>0.5233644859813084</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.6417445482866043</v>
-      </c>
-      <c r="N11">
-        <v>0.264797507788162</v>
-      </c>
-      <c r="O11">
-        <v>0.3800623052959501</v>
-      </c>
-      <c r="P11">
-        <v>0.557632398753894</v>
-      </c>
-      <c r="Q11">
-        <v>0.735202492211838</v>
-      </c>
-      <c r="R11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="S11">
-        <v>0.3831775700934579</v>
-      </c>
-      <c r="T11">
-        <v>0.6012461059190031</v>
-      </c>
-      <c r="U11">
-        <v>0.5856697819314641</v>
-      </c>
-      <c r="V11">
-        <v>0.2959501557632399</v>
-      </c>
-      <c r="W11">
-        <v>0.3364485981308411</v>
-      </c>
-      <c r="X11">
-        <v>0.3302180685358255</v>
-      </c>
-      <c r="Y11">
-        <v>0.6137071651090342</v>
-      </c>
-      <c r="Z11">
-        <v>0.3115264797507788</v>
-      </c>
-      <c r="AA11">
-        <v>0.2118380062305296</v>
-      </c>
-      <c r="AB11">
-        <v>0.411214953271028</v>
-      </c>
-      <c r="AC11">
-        <v>0.616822429906542</v>
-      </c>
-      <c r="AD11">
-        <v>0.7383177570093458</v>
-      </c>
-      <c r="AE11">
-        <v>0.2242990654205607</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12">
-        <v>0.5068436825149134</v>
-      </c>
-      <c r="C12">
-        <v>0.3352215203097424</v>
-      </c>
-      <c r="D12">
-        <v>0.3945097419406086</v>
-      </c>
-      <c r="E12">
-        <v>0.4863155637945244</v>
-      </c>
-      <c r="F12">
-        <v>0.3074776248412518</v>
-      </c>
-      <c r="G12">
-        <v>0.6628627806233189</v>
-      </c>
-      <c r="H12">
-        <v>0.5865161932869605</v>
-      </c>
-      <c r="I12">
-        <v>0.4682940032304431</v>
-      </c>
-      <c r="J12">
-        <v>0.3422486226588388</v>
-      </c>
-      <c r="K12">
-        <v>0.5013624078070508</v>
-      </c>
-      <c r="L12">
-        <v>0.3552252652733007</v>
-      </c>
-      <c r="M12">
-        <v>0.6179796056993854</v>
-      </c>
-      <c r="N12">
-        <v>0.3256114126658624</v>
-      </c>
-      <c r="O12">
-        <v>0.334035821753185</v>
-      </c>
-      <c r="P12">
-        <v>0.3522430865796123</v>
-      </c>
-      <c r="Q12">
-        <v>0.6052040056749453</v>
-      </c>
-      <c r="R12">
-        <v>0.2786541755925458</v>
-      </c>
-      <c r="S12">
-        <v>0.3797227765413428</v>
-      </c>
-      <c r="T12">
-        <v>0.4863454293390482</v>
-      </c>
-      <c r="U12">
-        <v>0.4864140219770898</v>
-      </c>
-      <c r="V12">
-        <v>0.325393292028629</v>
-      </c>
-      <c r="W12">
-        <v>0.3688037849734871</v>
-      </c>
-      <c r="X12">
-        <v>0.3804493518083806</v>
-      </c>
-      <c r="Y12">
-        <v>0.5435109128297961</v>
-      </c>
-      <c r="Z12">
-        <v>0.2857227718182133</v>
-      </c>
-      <c r="AA12">
-        <v>0.1817350835898368</v>
-      </c>
-      <c r="AB12">
-        <v>0.4578585952612776</v>
-      </c>
-      <c r="AC12">
-        <v>0.4759039862992456</v>
-      </c>
-      <c r="AD12">
-        <v>0.6204573594541879</v>
-      </c>
-      <c r="AE12">
-        <v>0.277307784962245</v>
+        <v>0.4086325703242338</v>
       </c>
     </row>
   </sheetData>

--- a/Post_test_by_question.xlsx
+++ b/Post_test_by_question.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>POST Q1</t>
   </si>
@@ -109,22 +109,43 @@
     <t>2014 111</t>
   </si>
   <si>
+    <t>2014 112</t>
+  </si>
+  <si>
     <t>2015 111</t>
   </si>
   <si>
+    <t>2015 112</t>
+  </si>
+  <si>
     <t>2016 111</t>
   </si>
   <si>
+    <t>2016 112</t>
+  </si>
+  <si>
     <t>2017 111</t>
   </si>
   <si>
+    <t>2017 112</t>
+  </si>
+  <si>
     <t>2018 111</t>
   </si>
   <si>
+    <t>2018 112</t>
+  </si>
+  <si>
     <t>2019 111</t>
   </si>
   <si>
+    <t>2019 112</t>
+  </si>
+  <si>
     <t>2020 111</t>
+  </si>
+  <si>
+    <t>2020 112</t>
   </si>
   <si>
     <t>2021 111</t>
@@ -488,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE10"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -686,94 +707,94 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.7354497354497355</v>
+        <v>0.404040404040404</v>
       </c>
       <c r="C3">
-        <v>0.4973544973544973</v>
+        <v>0.3131313131313131</v>
       </c>
       <c r="D3">
-        <v>0.582010582010582</v>
+        <v>0.4393939393939394</v>
       </c>
       <c r="E3">
-        <v>0.5555555555555556</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="F3">
-        <v>0.4338624338624338</v>
+        <v>0.1767676767676768</v>
       </c>
       <c r="G3">
-        <v>0.7619047619047619</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H3">
-        <v>0.7407407407407407</v>
+        <v>0.7171717171717171</v>
       </c>
       <c r="I3">
-        <v>0.5925925925925926</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="J3">
-        <v>0.4338624338624338</v>
+        <v>0.404040404040404</v>
       </c>
       <c r="K3">
-        <v>0.7195767195767195</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="L3">
-        <v>0.5079365079365079</v>
+        <v>0.2676767676767677</v>
       </c>
       <c r="M3">
-        <v>0.7936507936507936</v>
+        <v>0.6717171717171717</v>
       </c>
       <c r="N3">
-        <v>0.4973544973544973</v>
+        <v>0.2373737373737374</v>
       </c>
       <c r="O3">
-        <v>0.5396825396825397</v>
+        <v>0.3080808080808081</v>
       </c>
       <c r="P3">
-        <v>0.3915343915343915</v>
+        <v>0.3383838383838384</v>
       </c>
       <c r="Q3">
-        <v>0.7407407407407407</v>
+        <v>0.7171717171717171</v>
       </c>
       <c r="R3">
-        <v>0.4814814814814815</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="S3">
-        <v>0.5555555555555556</v>
+        <v>0.2373737373737374</v>
       </c>
       <c r="T3">
-        <v>0.5873015873015873</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="U3">
-        <v>0.6349206349206349</v>
+        <v>0.4141414141414141</v>
       </c>
       <c r="V3">
-        <v>0.4074074074074074</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="W3">
-        <v>0.5079365079365079</v>
+        <v>0.3484848484848485</v>
       </c>
       <c r="X3">
-        <v>0.5343915343915344</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="Y3">
-        <v>0.7037037037037037</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="Z3">
-        <v>0.4126984126984127</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="AA3">
-        <v>0.2804232804232804</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AB3">
-        <v>0.6349206349206349</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="AC3">
-        <v>0.5555555555555556</v>
+        <v>0.4393939393939394</v>
       </c>
       <c r="AD3">
-        <v>0.7777777777777778</v>
+        <v>0.7171717171717171</v>
       </c>
       <c r="AE3">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -781,94 +802,94 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>0.7019607843137254</v>
+        <v>0.7354497354497355</v>
       </c>
       <c r="C4">
-        <v>0.4823529411764706</v>
+        <v>0.4973544973544973</v>
       </c>
       <c r="D4">
-        <v>0.596078431372549</v>
+        <v>0.582010582010582</v>
       </c>
       <c r="E4">
-        <v>0.592156862745098</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="F4">
-        <v>0.3843137254901961</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="G4">
-        <v>0.796078431372549</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="H4">
-        <v>0.7450980392156863</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="I4">
-        <v>0.6352941176470588</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="J4">
-        <v>0.5333333333333333</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="K4">
-        <v>0.6862745098039216</v>
+        <v>0.7195767195767195</v>
       </c>
       <c r="L4">
-        <v>0.4980392156862745</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="M4">
-        <v>0.8431372549019608</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="N4">
-        <v>0.5137254901960784</v>
+        <v>0.4973544973544973</v>
       </c>
       <c r="O4">
-        <v>0.4784313725490196</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="P4">
-        <v>0.3803921568627451</v>
+        <v>0.3915343915343915</v>
       </c>
       <c r="Q4">
-        <v>0.7490196078431373</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="R4">
-        <v>0.4156862745098039</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="S4">
-        <v>0.4862745098039216</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="T4">
-        <v>0.6392156862745098</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="U4">
-        <v>0.6</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="V4">
-        <v>0.4274509803921568</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="W4">
-        <v>0.4470588235294118</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="X4">
-        <v>0.5254901960784314</v>
+        <v>0.5343915343915344</v>
       </c>
       <c r="Y4">
-        <v>0.6823529411764706</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="Z4">
-        <v>0.3843137254901961</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="AA4">
-        <v>0.2235294117647059</v>
+        <v>0.2804232804232804</v>
       </c>
       <c r="AB4">
-        <v>0.6431372549019608</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="AC4">
-        <v>0.5607843137254902</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AD4">
-        <v>0.7294117647058823</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="AE4">
-        <v>0.407843137254902</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -876,94 +897,94 @@
         <v>33</v>
       </c>
       <c r="B5">
-        <v>0.6455026455026455</v>
+        <v>0.7377049180327869</v>
       </c>
       <c r="C5">
-        <v>0.4656084656084656</v>
+        <v>0.3852459016393442</v>
       </c>
       <c r="D5">
-        <v>0.6296296296296297</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="E5">
-        <v>0.6613756613756614</v>
+        <v>0.5204918032786885</v>
       </c>
       <c r="F5">
-        <v>0.417989417989418</v>
+        <v>0.4016393442622951</v>
       </c>
       <c r="G5">
-        <v>0.7936507936507936</v>
+        <v>0.8114754098360656</v>
       </c>
       <c r="H5">
-        <v>0.7407407407407407</v>
+        <v>0.7008196721311475</v>
       </c>
       <c r="I5">
-        <v>0.6243386243386243</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="J5">
-        <v>0.4761904761904762</v>
+        <v>0.3073770491803279</v>
       </c>
       <c r="K5">
-        <v>0.6984126984126984</v>
+        <v>0.5614754098360656</v>
       </c>
       <c r="L5">
-        <v>0.5079365079365079</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="M5">
-        <v>0.8412698412698413</v>
+        <v>0.6516393442622951</v>
       </c>
       <c r="N5">
-        <v>0.5925925925925926</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="O5">
-        <v>0.5396825396825397</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="P5">
-        <v>0.4285714285714285</v>
+        <v>0.4016393442622951</v>
       </c>
       <c r="Q5">
-        <v>0.7671957671957672</v>
+        <v>0.6844262295081968</v>
       </c>
       <c r="R5">
-        <v>0.4656084656084656</v>
+        <v>0.2213114754098361</v>
       </c>
       <c r="S5">
-        <v>0.4973544973544973</v>
+        <v>0.4672131147540984</v>
       </c>
       <c r="T5">
-        <v>0.708994708994709</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="U5">
-        <v>0.6666666666666666</v>
+        <v>0.5450819672131147</v>
       </c>
       <c r="V5">
-        <v>0.5502645502645502</v>
+        <v>0.3647540983606558</v>
       </c>
       <c r="W5">
-        <v>0.6084656084656085</v>
+        <v>0.4057377049180328</v>
       </c>
       <c r="X5">
-        <v>0.5555555555555556</v>
+        <v>0.3852459016393442</v>
       </c>
       <c r="Y5">
-        <v>0.708994708994709</v>
+        <v>0.5983606557377049</v>
       </c>
       <c r="Z5">
-        <v>0.4708994708994709</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="AA5">
-        <v>0.3544973544973545</v>
+        <v>0.1270491803278689</v>
       </c>
       <c r="AB5">
-        <v>0.656084656084656</v>
+        <v>0.4959016393442623</v>
       </c>
       <c r="AC5">
-        <v>0.6984126984126984</v>
+        <v>0.4672131147540984</v>
       </c>
       <c r="AD5">
-        <v>0.8306878306878307</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="AE5">
-        <v>0.4761904761904762</v>
+        <v>0.2254098360655738</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -971,94 +992,94 @@
         <v>34</v>
       </c>
       <c r="B6">
-        <v>0.611764705882353</v>
+        <v>0.7019607843137254</v>
       </c>
       <c r="C6">
-        <v>0.3823529411764706</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="D6">
-        <v>0.4764705882352941</v>
+        <v>0.596078431372549</v>
       </c>
       <c r="E6">
-        <v>0.4352941176470588</v>
+        <v>0.592156862745098</v>
       </c>
       <c r="F6">
-        <v>0.3411764705882353</v>
+        <v>0.3843137254901961</v>
       </c>
       <c r="G6">
-        <v>0.8235294117647058</v>
+        <v>0.796078431372549</v>
       </c>
       <c r="H6">
-        <v>0.7235294117647059</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="I6">
-        <v>0.6588235294117647</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="J6">
-        <v>0.488235294117647</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="K6">
-        <v>0.611764705882353</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L6">
-        <v>0.3176470588235294</v>
+        <v>0.4980392156862745</v>
       </c>
       <c r="M6">
-        <v>0.8117647058823529</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="N6">
-        <v>0.3529411764705883</v>
+        <v>0.5137254901960784</v>
       </c>
       <c r="O6">
-        <v>0.4941176470588236</v>
+        <v>0.4784313725490196</v>
       </c>
       <c r="P6">
-        <v>0.3294117647058823</v>
+        <v>0.3803921568627451</v>
       </c>
       <c r="Q6">
-        <v>0.6764705882352942</v>
+        <v>0.7490196078431373</v>
       </c>
       <c r="R6">
-        <v>0.3058823529411765</v>
+        <v>0.4156862745098039</v>
       </c>
       <c r="S6">
-        <v>0.4235294117647059</v>
+        <v>0.4862745098039216</v>
       </c>
       <c r="T6">
-        <v>0.6294117647058823</v>
+        <v>0.6392156862745098</v>
       </c>
       <c r="U6">
-        <v>0.5941176470588235</v>
+        <v>0.6</v>
       </c>
       <c r="V6">
-        <v>0.4529411764705882</v>
+        <v>0.4274509803921568</v>
       </c>
       <c r="W6">
-        <v>0.5176470588235295</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="X6">
-        <v>0.6176470588235294</v>
+        <v>0.5254901960784314</v>
       </c>
       <c r="Y6">
-        <v>0.711764705882353</v>
+        <v>0.6823529411764706</v>
       </c>
       <c r="Z6">
-        <v>0.3588235294117647</v>
+        <v>0.3843137254901961</v>
       </c>
       <c r="AA6">
         <v>0.2235294117647059</v>
       </c>
       <c r="AB6">
-        <v>0.6235294117647059</v>
+        <v>0.6431372549019608</v>
       </c>
       <c r="AC6">
-        <v>0.5352941176470588</v>
+        <v>0.5607843137254902</v>
       </c>
       <c r="AD6">
-        <v>0.6882352941176471</v>
+        <v>0.7294117647058823</v>
       </c>
       <c r="AE6">
-        <v>0.3294117647058823</v>
+        <v>0.407843137254902</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1066,94 +1087,94 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>0.7523809523809524</v>
+        <v>0.5783582089552238</v>
       </c>
       <c r="C7">
-        <v>0.5380952380952381</v>
+        <v>0.4738805970149254</v>
       </c>
       <c r="D7">
-        <v>0.4380952380952381</v>
+        <v>0.5261194029850746</v>
       </c>
       <c r="E7">
-        <v>0.7571428571428571</v>
+        <v>0.6156716417910447</v>
       </c>
       <c r="F7">
-        <v>0.5142857142857142</v>
+        <v>0.4514925373134329</v>
       </c>
       <c r="G7">
-        <v>0.9095238095238095</v>
+        <v>0.8246268656716418</v>
       </c>
       <c r="H7">
-        <v>0.7714285714285715</v>
+        <v>0.6529850746268657</v>
       </c>
       <c r="I7">
-        <v>0.5857142857142857</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="J7">
-        <v>0.5190476190476191</v>
+        <v>0.3544776119402985</v>
       </c>
       <c r="K7">
-        <v>0.719047619047619</v>
+        <v>0.4813432835820896</v>
       </c>
       <c r="L7">
-        <v>0.5857142857142857</v>
+        <v>0.3992537313432836</v>
       </c>
       <c r="M7">
-        <v>0.8285714285714286</v>
+        <v>0.6940298507462687</v>
       </c>
       <c r="N7">
-        <v>0.5190476190476191</v>
+        <v>0.3843283582089552</v>
       </c>
       <c r="O7">
-        <v>0.5523809523809524</v>
+        <v>0.291044776119403</v>
       </c>
       <c r="P7">
-        <v>0.5761904761904761</v>
+        <v>0.4701492537313433</v>
       </c>
       <c r="Q7">
-        <v>0.7904761904761904</v>
+        <v>0.7388059701492538</v>
       </c>
       <c r="R7">
-        <v>0.5238095238095238</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="S7">
-        <v>0.6190476190476191</v>
+        <v>0.5111940298507462</v>
       </c>
       <c r="T7">
-        <v>0.7333333333333333</v>
+        <v>0.4888059701492538</v>
       </c>
       <c r="U7">
-        <v>0.7095238095238096</v>
+        <v>0.5746268656716418</v>
       </c>
       <c r="V7">
-        <v>0.4952380952380953</v>
+        <v>0.373134328358209</v>
       </c>
       <c r="W7">
-        <v>0.5714285714285714</v>
+        <v>0.3880597014925373</v>
       </c>
       <c r="X7">
-        <v>0.5714285714285714</v>
+        <v>0.373134328358209</v>
       </c>
       <c r="Y7">
-        <v>0.7523809523809524</v>
+        <v>0.5597014925373134</v>
       </c>
       <c r="Z7">
-        <v>0.5</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="AA7">
-        <v>0.4142857142857143</v>
+        <v>0.1156716417910448</v>
       </c>
       <c r="AB7">
-        <v>0.6285714285714286</v>
+        <v>0.5261194029850746</v>
       </c>
       <c r="AC7">
-        <v>0.7380952380952381</v>
+        <v>0.5970149253731343</v>
       </c>
       <c r="AD7">
-        <v>0.8095238095238095</v>
+        <v>0.7947761194029851</v>
       </c>
       <c r="AE7">
-        <v>0.4619047619047619</v>
+        <v>0.3059701492537313</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1161,94 +1182,94 @@
         <v>36</v>
       </c>
       <c r="B8">
-        <v>0.7351351351351352</v>
+        <v>0.6455026455026455</v>
       </c>
       <c r="C8">
-        <v>0.5513513513513514</v>
+        <v>0.4656084656084656</v>
       </c>
       <c r="D8">
-        <v>0.4432432432432433</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="E8">
-        <v>0.6594594594594595</v>
+        <v>0.6613756613756614</v>
       </c>
       <c r="F8">
-        <v>0.5081081081081081</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="G8">
-        <v>0.8</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="H8">
-        <v>0.745945945945946</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="I8">
-        <v>0.3243243243243243</v>
+        <v>0.6243386243386243</v>
       </c>
       <c r="J8">
-        <v>0.7135135135135136</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="K8">
-        <v>0.6432432432432432</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L8">
-        <v>0.572972972972973</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="M8">
-        <v>0.5189189189189189</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="N8">
-        <v>0.4108108108108108</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="O8">
-        <v>0.5459459459459459</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="P8">
-        <v>0.4918918918918919</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="Q8">
-        <v>0.6216216216216216</v>
+        <v>0.7671957671957672</v>
       </c>
       <c r="R8">
-        <v>0.5405405405405406</v>
+        <v>0.4656084656084656</v>
       </c>
       <c r="S8">
-        <v>0.4432432432432433</v>
+        <v>0.4973544973544973</v>
       </c>
       <c r="T8">
-        <v>0.3675675675675676</v>
+        <v>0.708994708994709</v>
       </c>
       <c r="U8">
-        <v>0.4054054054054054</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V8">
-        <v>0.3837837837837838</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="W8">
-        <v>0.6756756756756757</v>
+        <v>0.6084656084656085</v>
       </c>
       <c r="X8">
-        <v>0.4972972972972973</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Y8">
-        <v>0.3189189189189189</v>
+        <v>0.708994708994709</v>
       </c>
       <c r="Z8">
-        <v>0.5621621621621622</v>
+        <v>0.4708994708994709</v>
       </c>
       <c r="AA8">
-        <v>0.4162162162162162</v>
+        <v>0.3544973544973545</v>
       </c>
       <c r="AB8">
-        <v>0.5351351351351351</v>
+        <v>0.656084656084656</v>
       </c>
       <c r="AC8">
-        <v>0.7135135135135136</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="AD8">
-        <v>0.7243243243243244</v>
+        <v>0.8306878306878307</v>
       </c>
       <c r="AE8">
-        <v>0.6594594594594595</v>
+        <v>0.4761904761904762</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1256,94 +1277,94 @@
         <v>37</v>
       </c>
       <c r="B9">
-        <v>0.4470588235294118</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="C9">
-        <v>0.1294117647058824</v>
+        <v>0.3003663003663004</v>
       </c>
       <c r="D9">
-        <v>0.06274509803921569</v>
+        <v>0.3186813186813187</v>
       </c>
       <c r="E9">
-        <v>0.04313725490196078</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="F9">
-        <v>0.1098039215686274</v>
+        <v>0.4578754578754579</v>
       </c>
       <c r="G9">
-        <v>0.09019607843137255</v>
+        <v>0.8315018315018315</v>
       </c>
       <c r="H9">
-        <v>0.06666666666666667</v>
+        <v>0.7252747252747253</v>
       </c>
       <c r="I9">
-        <v>0.1137254901960784</v>
+        <v>0.5421245421245421</v>
       </c>
       <c r="J9">
-        <v>0.02745098039215686</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="K9">
-        <v>0.03529411764705882</v>
+        <v>0.6043956043956044</v>
       </c>
       <c r="L9">
-        <v>0.08627450980392157</v>
+        <v>0.5201465201465202</v>
       </c>
       <c r="M9">
-        <v>0.2627450980392157</v>
+        <v>0.8021978021978022</v>
       </c>
       <c r="N9">
-        <v>0.1372549019607843</v>
+        <v>0.4468864468864469</v>
       </c>
       <c r="O9">
-        <v>0.0196078431372549</v>
+        <v>0.326007326007326</v>
       </c>
       <c r="P9">
-        <v>0.1176470588235294</v>
+        <v>0.5604395604395604</v>
       </c>
       <c r="Q9">
-        <v>0.0196078431372549</v>
+        <v>0.8424908424908425</v>
       </c>
       <c r="R9">
-        <v>0.4627450980392157</v>
+        <v>0.3626373626373626</v>
       </c>
       <c r="S9">
-        <v>0.4627450980392157</v>
+        <v>0.5567765567765568</v>
       </c>
       <c r="T9">
-        <v>0.08627450980392157</v>
+        <v>0.663003663003663</v>
       </c>
       <c r="U9">
-        <v>0.02745098039215686</v>
+        <v>0.7289377289377289</v>
       </c>
       <c r="V9">
-        <v>0.03529411764705882</v>
+        <v>0.3553113553113553</v>
       </c>
       <c r="W9">
-        <v>0.05098039215686274</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="X9">
-        <v>0.4627450980392157</v>
+        <v>0.4578754578754579</v>
       </c>
       <c r="Y9">
-        <v>0.0392156862745098</v>
+        <v>0.7216117216117216</v>
       </c>
       <c r="Z9">
-        <v>0.03529411764705882</v>
+        <v>0.3882783882783883</v>
       </c>
       <c r="AA9">
-        <v>0.00392156862745098</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="AB9">
-        <v>0.05098039215686274</v>
+        <v>0.5604395604395604</v>
       </c>
       <c r="AC9">
-        <v>0.01176470588235294</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="AD9">
-        <v>0.2745098039215687</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="AE9">
-        <v>0.0196078431372549</v>
+        <v>0.36996336996337</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1351,94 +1372,759 @@
         <v>38</v>
       </c>
       <c r="B10">
-        <v>0.6713718295623243</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="C10">
-        <v>0.4437298072183152</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="D10">
-        <v>0.4805208562951064</v>
+        <v>0.4764705882352941</v>
       </c>
       <c r="E10">
-        <v>0.5515913800438538</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="F10">
-        <v>0.3982951229932142</v>
+        <v>0.3411764705882353</v>
       </c>
       <c r="G10">
-        <v>0.7303041194402705</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="H10">
-        <v>0.6685899566158624</v>
+        <v>0.7235294117647059</v>
       </c>
       <c r="I10">
-        <v>0.5411893688724619</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="J10">
-        <v>0.4651793718700614</v>
+        <v>0.488235294117647</v>
       </c>
       <c r="K10">
-        <v>0.6077447480593176</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L10">
-        <v>0.4623797018956738</v>
+        <v>0.3176470588235294</v>
       </c>
       <c r="M10">
-        <v>0.7217787783331219</v>
+        <v>0.8117647058823529</v>
       </c>
       <c r="N10">
-        <v>0.4408797933388895</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="O10">
-        <v>0.4566615686307934</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="P10">
-        <v>0.3957462868010199</v>
+        <v>0.3294117647058823</v>
       </c>
       <c r="Q10">
-        <v>0.6433236641115488</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="R10">
-        <v>0.4507937204275342</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="S10">
-        <v>0.5063329802616908</v>
+        <v>0.4235294117647059</v>
       </c>
       <c r="T10">
-        <v>0.553449480840404</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="U10">
-        <v>0.5350586562409703</v>
+        <v>0.5941176470588235</v>
       </c>
       <c r="V10">
-        <v>0.4069614211852233</v>
+        <v>0.4529411764705882</v>
       </c>
       <c r="W10">
-        <v>0.4927633181626169</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="X10">
-        <v>0.5384502086537537</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="Y10">
-        <v>0.5856929422326773</v>
+        <v>0.711764705882353</v>
       </c>
       <c r="Z10">
-        <v>0.3984709471561828</v>
+        <v>0.3588235294117647</v>
       </c>
       <c r="AA10">
-        <v>0.2842523564523954</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="AB10">
-        <v>0.5526706920064925</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="AC10">
-        <v>0.5611146039467036</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="AD10">
-        <v>0.7044743885462622</v>
+        <v>0.6882352941176471</v>
       </c>
       <c r="AE10">
-        <v>0.4086325703242338</v>
+        <v>0.3294117647058823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>0.5759717314487632</v>
+      </c>
+      <c r="C11">
+        <v>0.353356890459364</v>
+      </c>
+      <c r="D11">
+        <v>0.265017667844523</v>
+      </c>
+      <c r="E11">
+        <v>0.8162544169611308</v>
+      </c>
+      <c r="F11">
+        <v>0.3003533568904594</v>
+      </c>
+      <c r="G11">
+        <v>0.8833922261484098</v>
+      </c>
+      <c r="H11">
+        <v>0.7420494699646644</v>
+      </c>
+      <c r="I11">
+        <v>0.4911660777385159</v>
+      </c>
+      <c r="J11">
+        <v>0.3568904593639576</v>
+      </c>
+      <c r="K11">
+        <v>0.5936395759717314</v>
+      </c>
+      <c r="L11">
+        <v>0.3780918727915195</v>
+      </c>
+      <c r="M11">
+        <v>0.7279151943462897</v>
+      </c>
+      <c r="N11">
+        <v>0.3003533568904594</v>
+      </c>
+      <c r="O11">
+        <v>0.431095406360424</v>
+      </c>
+      <c r="P11">
+        <v>0.6325088339222615</v>
+      </c>
+      <c r="Q11">
+        <v>0.833922261484099</v>
+      </c>
+      <c r="R11">
+        <v>0.3780918727915195</v>
+      </c>
+      <c r="S11">
+        <v>0.4346289752650176</v>
+      </c>
+      <c r="T11">
+        <v>0.6819787985865724</v>
+      </c>
+      <c r="U11">
+        <v>0.6643109540636042</v>
+      </c>
+      <c r="V11">
+        <v>0.3356890459363958</v>
+      </c>
+      <c r="W11">
+        <v>0.3816254416961131</v>
+      </c>
+      <c r="X11">
+        <v>0.3745583038869258</v>
+      </c>
+      <c r="Y11">
+        <v>0.6961130742049469</v>
+      </c>
+      <c r="Z11">
+        <v>0.353356890459364</v>
+      </c>
+      <c r="AA11">
+        <v>0.2402826855123675</v>
+      </c>
+      <c r="AB11">
+        <v>0.4664310954063604</v>
+      </c>
+      <c r="AC11">
+        <v>0.6996466431095406</v>
+      </c>
+      <c r="AD11">
+        <v>0.8374558303886925</v>
+      </c>
+      <c r="AE11">
+        <v>0.254416961130742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>0.7523809523809524</v>
+      </c>
+      <c r="C12">
+        <v>0.5380952380952381</v>
+      </c>
+      <c r="D12">
+        <v>0.4380952380952381</v>
+      </c>
+      <c r="E12">
+        <v>0.7571428571428571</v>
+      </c>
+      <c r="F12">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="G12">
+        <v>0.9095238095238095</v>
+      </c>
+      <c r="H12">
+        <v>0.7714285714285715</v>
+      </c>
+      <c r="I12">
+        <v>0.5857142857142857</v>
+      </c>
+      <c r="J12">
+        <v>0.5190476190476191</v>
+      </c>
+      <c r="K12">
+        <v>0.719047619047619</v>
+      </c>
+      <c r="L12">
+        <v>0.5857142857142857</v>
+      </c>
+      <c r="M12">
+        <v>0.8285714285714286</v>
+      </c>
+      <c r="N12">
+        <v>0.5190476190476191</v>
+      </c>
+      <c r="O12">
+        <v>0.5523809523809524</v>
+      </c>
+      <c r="P12">
+        <v>0.5761904761904761</v>
+      </c>
+      <c r="Q12">
+        <v>0.7904761904761904</v>
+      </c>
+      <c r="R12">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="S12">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="T12">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="U12">
+        <v>0.7095238095238096</v>
+      </c>
+      <c r="V12">
+        <v>0.4952380952380953</v>
+      </c>
+      <c r="W12">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="X12">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Y12">
+        <v>0.7523809523809524</v>
+      </c>
+      <c r="Z12">
+        <v>0.5</v>
+      </c>
+      <c r="AA12">
+        <v>0.4142857142857143</v>
+      </c>
+      <c r="AB12">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="AC12">
+        <v>0.7380952380952381</v>
+      </c>
+      <c r="AD12">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="AE12">
+        <v>0.4619047619047619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>0.5030487804878049</v>
+      </c>
+      <c r="C13">
+        <v>0.3719512195121951</v>
+      </c>
+      <c r="D13">
+        <v>0.3323170731707317</v>
+      </c>
+      <c r="E13">
+        <v>0.823170731707317</v>
+      </c>
+      <c r="F13">
+        <v>0.3445121951219512</v>
+      </c>
+      <c r="G13">
+        <v>0.8932926829268293</v>
+      </c>
+      <c r="H13">
+        <v>0.7560975609756098</v>
+      </c>
+      <c r="I13">
+        <v>0.6067073170731707</v>
+      </c>
+      <c r="J13">
+        <v>0.3841463414634146</v>
+      </c>
+      <c r="K13">
+        <v>0.6402439024390244</v>
+      </c>
+      <c r="L13">
+        <v>0.4542682926829268</v>
+      </c>
+      <c r="M13">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="N13">
+        <v>0.3414634146341464</v>
+      </c>
+      <c r="O13">
+        <v>0.4847560975609756</v>
+      </c>
+      <c r="P13">
+        <v>0.6951219512195121</v>
+      </c>
+      <c r="Q13">
+        <v>0.8597560975609756</v>
+      </c>
+      <c r="R13">
+        <v>0.3384146341463415</v>
+      </c>
+      <c r="S13">
+        <v>0.4359756097560976</v>
+      </c>
+      <c r="T13">
+        <v>0.6737804878048781</v>
+      </c>
+      <c r="U13">
+        <v>0.698170731707317</v>
+      </c>
+      <c r="V13">
+        <v>0.3445121951219512</v>
+      </c>
+      <c r="W13">
+        <v>0.399390243902439</v>
+      </c>
+      <c r="X13">
+        <v>0.4115853658536585</v>
+      </c>
+      <c r="Y13">
+        <v>0.7134146341463414</v>
+      </c>
+      <c r="Z13">
+        <v>0.3079268292682927</v>
+      </c>
+      <c r="AA13">
+        <v>0.2378048780487805</v>
+      </c>
+      <c r="AB13">
+        <v>0.5487804878048781</v>
+      </c>
+      <c r="AC13">
+        <v>0.7347560975609756</v>
+      </c>
+      <c r="AD13">
+        <v>0.875</v>
+      </c>
+      <c r="AE13">
+        <v>0.3414634146341464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>0.7351351351351352</v>
+      </c>
+      <c r="C14">
+        <v>0.5513513513513514</v>
+      </c>
+      <c r="D14">
+        <v>0.4432432432432433</v>
+      </c>
+      <c r="E14">
+        <v>0.6594594594594595</v>
+      </c>
+      <c r="F14">
+        <v>0.5081081081081081</v>
+      </c>
+      <c r="G14">
+        <v>0.8</v>
+      </c>
+      <c r="H14">
+        <v>0.745945945945946</v>
+      </c>
+      <c r="I14">
+        <v>0.3243243243243243</v>
+      </c>
+      <c r="J14">
+        <v>0.7135135135135136</v>
+      </c>
+      <c r="K14">
+        <v>0.6432432432432432</v>
+      </c>
+      <c r="L14">
+        <v>0.572972972972973</v>
+      </c>
+      <c r="M14">
+        <v>0.5189189189189189</v>
+      </c>
+      <c r="N14">
+        <v>0.4108108108108108</v>
+      </c>
+      <c r="O14">
+        <v>0.5459459459459459</v>
+      </c>
+      <c r="P14">
+        <v>0.4918918918918919</v>
+      </c>
+      <c r="Q14">
+        <v>0.6216216216216216</v>
+      </c>
+      <c r="R14">
+        <v>0.5405405405405406</v>
+      </c>
+      <c r="S14">
+        <v>0.4432432432432433</v>
+      </c>
+      <c r="T14">
+        <v>0.3675675675675676</v>
+      </c>
+      <c r="U14">
+        <v>0.4054054054054054</v>
+      </c>
+      <c r="V14">
+        <v>0.3837837837837838</v>
+      </c>
+      <c r="W14">
+        <v>0.6756756756756757</v>
+      </c>
+      <c r="X14">
+        <v>0.4972972972972973</v>
+      </c>
+      <c r="Y14">
+        <v>0.3189189189189189</v>
+      </c>
+      <c r="Z14">
+        <v>0.5621621621621622</v>
+      </c>
+      <c r="AA14">
+        <v>0.4162162162162162</v>
+      </c>
+      <c r="AB14">
+        <v>0.5351351351351351</v>
+      </c>
+      <c r="AC14">
+        <v>0.7135135135135136</v>
+      </c>
+      <c r="AD14">
+        <v>0.7243243243243244</v>
+      </c>
+      <c r="AE14">
+        <v>0.6594594594594595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>0.5431309904153354</v>
+      </c>
+      <c r="C15">
+        <v>0.2651757188498403</v>
+      </c>
+      <c r="D15">
+        <v>0.2811501597444089</v>
+      </c>
+      <c r="E15">
+        <v>0.7188498402555911</v>
+      </c>
+      <c r="F15">
+        <v>0.4345047923322684</v>
+      </c>
+      <c r="G15">
+        <v>0.7667731629392971</v>
+      </c>
+      <c r="H15">
+        <v>0.7124600638977636</v>
+      </c>
+      <c r="I15">
+        <v>0.1853035143769968</v>
+      </c>
+      <c r="J15">
+        <v>0.5750798722044729</v>
+      </c>
+      <c r="K15">
+        <v>0.4217252396166134</v>
+      </c>
+      <c r="L15">
+        <v>0.4920127795527157</v>
+      </c>
+      <c r="M15">
+        <v>0.5686900958466453</v>
+      </c>
+      <c r="N15">
+        <v>0.3258785942492013</v>
+      </c>
+      <c r="O15">
+        <v>0.4920127795527157</v>
+      </c>
+      <c r="P15">
+        <v>0.6293929712460063</v>
+      </c>
+      <c r="Q15">
+        <v>0.6964856230031949</v>
+      </c>
+      <c r="R15">
+        <v>0.4376996805111821</v>
+      </c>
+      <c r="S15">
+        <v>0.4568690095846645</v>
+      </c>
+      <c r="T15">
+        <v>0.3386581469648562</v>
+      </c>
+      <c r="U15">
+        <v>0.3578274760383386</v>
+      </c>
+      <c r="V15">
+        <v>0.2619808306709265</v>
+      </c>
+      <c r="W15">
+        <v>0.5878594249201278</v>
+      </c>
+      <c r="X15">
+        <v>0.3482428115015975</v>
+      </c>
+      <c r="Y15">
+        <v>0.194888178913738</v>
+      </c>
+      <c r="Z15">
+        <v>0.4440894568690096</v>
+      </c>
+      <c r="AA15">
+        <v>0.268370607028754</v>
+      </c>
+      <c r="AB15">
+        <v>0.3801916932907348</v>
+      </c>
+      <c r="AC15">
+        <v>0.7156549520766773</v>
+      </c>
+      <c r="AD15">
+        <v>0.6996805111821086</v>
+      </c>
+      <c r="AE15">
+        <v>0.6900958466453674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>0.75</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="E16">
+        <v>0.7039473684210527</v>
+      </c>
+      <c r="F16">
+        <v>0.4605263157894737</v>
+      </c>
+      <c r="G16">
+        <v>0.7763157894736842</v>
+      </c>
+      <c r="H16">
+        <v>0.7763157894736842</v>
+      </c>
+      <c r="I16">
+        <v>0.6513157894736842</v>
+      </c>
+      <c r="J16">
+        <v>0.4934210526315789</v>
+      </c>
+      <c r="K16">
+        <v>0.6513157894736842</v>
+      </c>
+      <c r="L16">
+        <v>0.3947368421052632</v>
+      </c>
+      <c r="M16">
+        <v>0.7763157894736842</v>
+      </c>
+      <c r="N16">
+        <v>0.3815789473684211</v>
+      </c>
+      <c r="O16">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="P16">
+        <v>0.5460526315789473</v>
+      </c>
+      <c r="Q16">
+        <v>0.7171052631578947</v>
+      </c>
+      <c r="R16">
+        <v>0.4407894736842105</v>
+      </c>
+      <c r="S16">
+        <v>0.4605263157894737</v>
+      </c>
+      <c r="T16">
+        <v>0.5592105263157895</v>
+      </c>
+      <c r="U16">
+        <v>0.4539473684210527</v>
+      </c>
+      <c r="V16">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="W16">
+        <v>0.5197368421052632</v>
+      </c>
+      <c r="X16">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="Y16">
+        <v>0.6644736842105263</v>
+      </c>
+      <c r="Z16">
+        <v>0.4671052631578947</v>
+      </c>
+      <c r="AA16">
+        <v>0.3026315789473684</v>
+      </c>
+      <c r="AB16">
+        <v>0.5592105263157895</v>
+      </c>
+      <c r="AC16">
+        <v>0.618421052631579</v>
+      </c>
+      <c r="AD16">
+        <v>0.743421052631579</v>
+      </c>
+      <c r="AE16">
+        <v>0.3815789473684211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>0.6377080930533368</v>
+      </c>
+      <c r="C17">
+        <v>0.4255689756009281</v>
+      </c>
+      <c r="D17">
+        <v>0.4630551293120593</v>
+      </c>
+      <c r="E17">
+        <v>0.6504527184449922</v>
+      </c>
+      <c r="F17">
+        <v>0.4069485825820068</v>
+      </c>
+      <c r="G17">
+        <v>0.8248632119281256</v>
+      </c>
+      <c r="H17">
+        <v>0.737681803985094</v>
+      </c>
+      <c r="I17">
+        <v>0.5484684134786502</v>
+      </c>
+      <c r="J17">
+        <v>0.4643347453998122</v>
+      </c>
+      <c r="K17">
+        <v>0.623097282519924</v>
+      </c>
+      <c r="L17">
+        <v>0.4651977536735392</v>
+      </c>
+      <c r="M17">
+        <v>0.7456318788062644</v>
+      </c>
+      <c r="N17">
+        <v>0.405755654996791</v>
+      </c>
+      <c r="O17">
+        <v>0.4501299581032887</v>
+      </c>
+      <c r="P17">
+        <v>0.4881341080245596</v>
+      </c>
+      <c r="Q17">
+        <v>0.7478096982854207</v>
+      </c>
+      <c r="R17">
+        <v>0.3848531947186944</v>
+      </c>
+      <c r="S17">
+        <v>0.4765650728803135</v>
+      </c>
+      <c r="T17">
+        <v>0.583746505235149</v>
+      </c>
+      <c r="U17">
+        <v>0.5793375183819879</v>
+      </c>
+      <c r="V17">
+        <v>0.3996675703569991</v>
+      </c>
+      <c r="W17">
+        <v>0.4932140557902606</v>
+      </c>
+      <c r="X17">
+        <v>0.4737101942412049</v>
+      </c>
+      <c r="Y17">
+        <v>0.6287503286208558</v>
+      </c>
+      <c r="Z17">
+        <v>0.3923274744625939</v>
+      </c>
+      <c r="AA17">
+        <v>0.265380751563421</v>
+      </c>
+      <c r="AB17">
+        <v>0.5574670002684794</v>
+      </c>
+      <c r="AC17">
+        <v>0.6328561729453976</v>
+      </c>
+      <c r="AD17">
+        <v>0.7723631329014277</v>
+      </c>
+      <c r="AE17">
+        <v>0.4027048977826794</v>
       </c>
     </row>
   </sheetData>
